--- a/results/LMS8_cover type.xlsx
+++ b/results/LMS8_cover type.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/chih-yu_hung_agr_gc_ca/Documents/AAFC/Project 11_Can Farm survey/FMS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_713C0EADB5E4A8DB7734BF8E211F9A237B254536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EB1D35F-79B5-4165-839C-0D17F937D8F0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_713C0EAD54B429C83535BFE7994E40286ECF4434" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4533F86E-D9A6-4E2B-8950-B209B652DB6B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weighted values by province" sheetId="1" r:id="rId1"/>
     <sheet name="wetight percentage by province" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="23">
   <si>
     <t>Livestock</t>
   </si>
@@ -84,6 +94,12 @@
   </si>
   <si>
     <t>National</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -439,7 +455,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:P21"/>
+      <selection activeCell="C3" sqref="C3:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,47 +517,47 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2022</v>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1496,7 +1512,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1504,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:P21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1567,47 +1582,47 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2022</v>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1627,13 +1642,13 @@
         <v>95.7</v>
       </c>
       <c r="F3" s="1">
-        <v>86</v>
+        <v>83.6</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I3" s="1">
         <v>0.6</v>
@@ -1651,13 +1666,13 @@
         <v>1.9</v>
       </c>
       <c r="N3" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O3" s="1">
         <v>0.9</v>
       </c>
       <c r="P3" s="1">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1677,19 +1692,19 @@
         <v>57.2</v>
       </c>
       <c r="F4" s="1">
-        <v>54.6</v>
+        <v>53.7</v>
       </c>
       <c r="G4" s="1">
         <v>5.9</v>
       </c>
       <c r="H4" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1">
         <v>33.9</v>
       </c>
       <c r="J4" s="1">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1707,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="1">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1877,19 +1892,19 @@
         <v>84.9</v>
       </c>
       <c r="F8" s="1">
-        <v>85.3</v>
+        <v>83.6</v>
       </c>
       <c r="G8" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I8" s="1">
         <v>5.5</v>
       </c>
       <c r="J8" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="K8" s="1">
         <v>1.9</v>
@@ -1907,7 +1922,7 @@
         <v>3.1</v>
       </c>
       <c r="P8" s="1">
-        <v>36.799999999999997</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1927,13 +1942,13 @@
         <v>90.1</v>
       </c>
       <c r="F9" s="1">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1">
         <v>3.8</v>
       </c>
       <c r="H9" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" s="1">
         <v>3.1</v>
@@ -1957,7 +1972,7 @@
         <v>2.1</v>
       </c>
       <c r="P9" s="1">
-        <v>15.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -2027,25 +2042,25 @@
         <v>86.5</v>
       </c>
       <c r="F11" s="1">
-        <v>88.2</v>
+        <v>87.1</v>
       </c>
       <c r="G11" s="1">
         <v>3.7</v>
       </c>
       <c r="H11" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" s="1">
         <v>5.7</v>
       </c>
       <c r="J11" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="K11" s="1">
         <v>1.3</v>
       </c>
       <c r="L11" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
@@ -2057,7 +2072,7 @@
         <v>2.5</v>
       </c>
       <c r="P11" s="1">
-        <v>61</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -2377,19 +2392,19 @@
         <v>41.6</v>
       </c>
       <c r="F18" s="1">
-        <v>38.299999999999997</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G18" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="H18" s="1">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I18" s="1">
         <v>38.1</v>
       </c>
       <c r="J18" s="1">
-        <v>48.8</v>
+        <v>46.2</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -2407,7 +2422,7 @@
         <v>10.5</v>
       </c>
       <c r="P18" s="1">
-        <v>34.799999999999997</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -2527,25 +2542,25 @@
         <v>68.2</v>
       </c>
       <c r="F21" s="1">
-        <v>65.900000000000006</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="G21" s="1">
         <v>5.5</v>
       </c>
       <c r="H21" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I21" s="1">
         <v>18.100000000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="K21" s="1">
         <v>2.1</v>
       </c>
       <c r="L21" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M21" s="1">
         <v>1.8</v>
@@ -2557,11 +2572,10 @@
         <v>4.3</v>
       </c>
       <c r="P21" s="1">
-        <v>34.799999999999997</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>